--- a/Code/Results/Cases/Case_1_154/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_154/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.975123592506616</v>
+        <v>1.017167970187033</v>
       </c>
       <c r="D2">
-        <v>1.044252727426991</v>
+        <v>1.050404131575146</v>
       </c>
       <c r="E2">
-        <v>0.9848700313006644</v>
+        <v>1.018584458628503</v>
       </c>
       <c r="F2">
-        <v>1.037073351853836</v>
+        <v>1.053171572303187</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054088302201207</v>
+        <v>1.039191247027457</v>
       </c>
       <c r="J2">
-        <v>0.9980746932486753</v>
+        <v>1.02238362288184</v>
       </c>
       <c r="K2">
-        <v>1.055128146249095</v>
+        <v>1.053158503322448</v>
       </c>
       <c r="L2">
-        <v>0.9965442540591246</v>
+        <v>1.02143023957654</v>
       </c>
       <c r="M2">
-        <v>1.048039272116371</v>
+        <v>1.055918277059859</v>
       </c>
       <c r="N2">
-        <v>0.999492073793856</v>
+        <v>1.023835524895373</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9802642142628545</v>
+        <v>1.018257849859831</v>
       </c>
       <c r="D3">
-        <v>1.047189524302515</v>
+        <v>1.051022076573956</v>
       </c>
       <c r="E3">
-        <v>0.9890021040344753</v>
+        <v>1.019513524279183</v>
       </c>
       <c r="F3">
-        <v>1.040799122135404</v>
+        <v>1.05398574379513</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054957808167005</v>
+        <v>1.039306519346215</v>
       </c>
       <c r="J3">
-        <v>1.001307748324113</v>
+        <v>1.023108534113564</v>
       </c>
       <c r="K3">
-        <v>1.05725221453809</v>
+        <v>1.05358938936466</v>
       </c>
       <c r="L3">
-        <v>0.9997776663458297</v>
+        <v>1.02216480748012</v>
       </c>
       <c r="M3">
-        <v>1.05093528534537</v>
+        <v>1.056545437182579</v>
       </c>
       <c r="N3">
-        <v>1.002729720178338</v>
+        <v>1.024561465584194</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9835184493571749</v>
+        <v>1.018963575465803</v>
       </c>
       <c r="D4">
-        <v>1.049051054983582</v>
+        <v>1.051421598318675</v>
       </c>
       <c r="E4">
-        <v>0.9916247302488548</v>
+        <v>1.020115474984113</v>
       </c>
       <c r="F4">
-        <v>1.043162322428133</v>
+        <v>1.054512573358387</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055497565339168</v>
+        <v>1.039379666209665</v>
       </c>
       <c r="J4">
-        <v>1.003353362350803</v>
+        <v>1.023577588117426</v>
       </c>
       <c r="K4">
-        <v>1.058591437699354</v>
+        <v>1.053867178923646</v>
       </c>
       <c r="L4">
-        <v>1.001825299599298</v>
+        <v>1.022640285066947</v>
       </c>
       <c r="M4">
-        <v>1.052766296630916</v>
+        <v>1.056950605840609</v>
       </c>
       <c r="N4">
-        <v>1.00477823921158</v>
+        <v>1.025031185698543</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9848699828218959</v>
+        <v>1.019260382613656</v>
       </c>
       <c r="D5">
-        <v>1.049824590750901</v>
+        <v>1.051589476404707</v>
       </c>
       <c r="E5">
-        <v>0.9927155267280187</v>
+        <v>1.020368722054587</v>
       </c>
       <c r="F5">
-        <v>1.044144743481418</v>
+        <v>1.054734052232546</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055719093311701</v>
+        <v>1.039410071223072</v>
       </c>
       <c r="J5">
-        <v>1.00420264056939</v>
+        <v>1.02377477528621</v>
       </c>
       <c r="K5">
-        <v>1.059146209525414</v>
+        <v>1.053983715434875</v>
       </c>
       <c r="L5">
-        <v>1.002675841591991</v>
+        <v>1.022840214540975</v>
       </c>
       <c r="M5">
-        <v>1.053526054379004</v>
+        <v>1.057120782618311</v>
       </c>
       <c r="N5">
-        <v>1.005628723502651</v>
+        <v>1.025228652895725</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9850959608582026</v>
+        <v>1.019310224890516</v>
       </c>
       <c r="D6">
-        <v>1.049953946510656</v>
+        <v>1.051617659078566</v>
       </c>
       <c r="E6">
-        <v>0.9928980003253348</v>
+        <v>1.020411254303518</v>
       </c>
       <c r="F6">
-        <v>1.044309056606443</v>
+        <v>1.054771239443004</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055755975511043</v>
+        <v>1.039415156052785</v>
       </c>
       <c r="J6">
-        <v>1.004344622219997</v>
+        <v>1.023807883688424</v>
       </c>
       <c r="K6">
-        <v>1.059238880365029</v>
+        <v>1.054003267947927</v>
       </c>
       <c r="L6">
-        <v>1.002818059399569</v>
+        <v>1.022873785838922</v>
       </c>
       <c r="M6">
-        <v>1.053653042317155</v>
+        <v>1.057149346849043</v>
       </c>
       <c r="N6">
-        <v>1.005770906783488</v>
+        <v>1.025261808315667</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9835365727193134</v>
+        <v>1.018967540945175</v>
       </c>
       <c r="D7">
-        <v>1.049061426275149</v>
+        <v>1.05142384183394</v>
       </c>
       <c r="E7">
-        <v>0.9916393511018852</v>
+        <v>1.020118858149709</v>
       </c>
       <c r="F7">
-        <v>1.043175492648208</v>
+        <v>1.054515532773243</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055500546454188</v>
+        <v>1.03938007384309</v>
       </c>
       <c r="J7">
-        <v>1.003364751960099</v>
+        <v>1.02358022295466</v>
       </c>
       <c r="K7">
-        <v>1.058598882713896</v>
+        <v>1.053868737059498</v>
       </c>
       <c r="L7">
-        <v>1.001836704481708</v>
+        <v>1.022642956382733</v>
       </c>
       <c r="M7">
-        <v>1.052776487491512</v>
+        <v>1.056952880366419</v>
       </c>
       <c r="N7">
-        <v>1.004789644995428</v>
+        <v>1.025033824277548</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9768762582751688</v>
+        <v>1.017536196633623</v>
       </c>
       <c r="D8">
-        <v>1.045253402466544</v>
+        <v>1.050613036194153</v>
       </c>
       <c r="E8">
-        <v>0.986277361739358</v>
+        <v>1.018898278277446</v>
       </c>
       <c r="F8">
-        <v>1.038342559422219</v>
+        <v>1.053446723043209</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054386946929879</v>
+        <v>1.039230502008633</v>
       </c>
       <c r="J8">
-        <v>0.9991771772573377</v>
+        <v>1.022628612366196</v>
       </c>
       <c r="K8">
-        <v>1.055853387447524</v>
+        <v>1.053304334142525</v>
       </c>
       <c r="L8">
-        <v>0.9976464803115421</v>
+        <v>1.021678456280069</v>
       </c>
       <c r="M8">
-        <v>1.049027044777026</v>
+        <v>1.056130361591622</v>
       </c>
       <c r="N8">
-        <v>1.000596123456267</v>
+        <v>1.024080862292897</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9645535998607672</v>
+        <v>1.015017806979407</v>
       </c>
       <c r="D9">
-        <v>1.038235259518234</v>
+        <v>1.049181847405989</v>
       </c>
       <c r="E9">
-        <v>0.9764145840767389</v>
+        <v>1.016753479335922</v>
       </c>
       <c r="F9">
-        <v>1.029445758686436</v>
+        <v>1.051563468028275</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052245193192594</v>
+        <v>1.038955923975571</v>
       </c>
       <c r="J9">
-        <v>0.9914232968293031</v>
+        <v>1.020951671698537</v>
       </c>
       <c r="K9">
-        <v>1.050737025901894</v>
+        <v>1.052302015519072</v>
       </c>
       <c r="L9">
-        <v>0.9899022712468214</v>
+        <v>1.01998014707541</v>
       </c>
       <c r="M9">
-        <v>1.042078504000935</v>
+        <v>1.054676097844083</v>
       </c>
       <c r="N9">
-        <v>0.9928312316286423</v>
+        <v>1.022401540177142</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9558927128283314</v>
+        <v>1.013341430999438</v>
       </c>
       <c r="D10">
-        <v>1.033333170571271</v>
+        <v>1.048226186895506</v>
       </c>
       <c r="E10">
-        <v>0.969526501530896</v>
+        <v>1.015327686606929</v>
       </c>
       <c r="F10">
-        <v>1.023235112499006</v>
+        <v>1.050308151283393</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050690293558085</v>
+        <v>1.038765508617955</v>
       </c>
       <c r="J10">
-        <v>0.9859726036955279</v>
+        <v>1.019833669605001</v>
       </c>
       <c r="K10">
-        <v>1.047125581981428</v>
+        <v>1.051628664035733</v>
       </c>
       <c r="L10">
-        <v>0.9844686605900995</v>
+        <v>1.018848808180997</v>
       </c>
       <c r="M10">
-        <v>1.037197150758052</v>
+        <v>1.053703395538302</v>
       </c>
       <c r="N10">
-        <v>0.987372797885414</v>
+        <v>1.021281950392398</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9520239980813756</v>
+        <v>1.012616141567497</v>
       </c>
       <c r="D11">
-        <v>1.031153598977953</v>
+        <v>1.047812034341163</v>
       </c>
       <c r="E11">
-        <v>0.9664612408791364</v>
+        <v>1.014711273722165</v>
       </c>
       <c r="F11">
-        <v>1.020473830647589</v>
+        <v>1.049764650990227</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049985302908435</v>
+        <v>1.038681318818633</v>
       </c>
       <c r="J11">
-        <v>0.9835384040322422</v>
+        <v>1.019349554612805</v>
       </c>
       <c r="K11">
-        <v>1.045510984167976</v>
+        <v>1.051335894062308</v>
       </c>
       <c r="L11">
-        <v>0.9820446319698245</v>
+        <v>1.018359134870692</v>
       </c>
       <c r="M11">
-        <v>1.035019700373169</v>
+        <v>1.053281465687463</v>
       </c>
       <c r="N11">
-        <v>0.9849351413793997</v>
+        <v>1.020797147901383</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.950567992595109</v>
+        <v>1.012346825253086</v>
       </c>
       <c r="D12">
-        <v>1.030335092417917</v>
+        <v>1.047658149610549</v>
       </c>
       <c r="E12">
-        <v>0.9653094606116079</v>
+        <v>1.014482455810613</v>
       </c>
       <c r="F12">
-        <v>1.019436817704665</v>
+        <v>1.049562781515395</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049718529192839</v>
+        <v>1.038649786429092</v>
       </c>
       <c r="J12">
-        <v>0.9826224389697612</v>
+        <v>1.019169730936508</v>
       </c>
       <c r="K12">
-        <v>1.044903316550255</v>
+        <v>1.051226966708844</v>
       </c>
       <c r="L12">
-        <v>0.9811328857263214</v>
+        <v>1.018177279224385</v>
       </c>
       <c r="M12">
-        <v>1.034200878256814</v>
+        <v>1.053124631919415</v>
       </c>
       <c r="N12">
-        <v>0.9840178755414675</v>
+        <v>1.02061706885484</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9508811903905815</v>
+        <v>1.012404590521573</v>
       </c>
       <c r="D13">
-        <v>1.030511074452839</v>
+        <v>1.047691160642257</v>
       </c>
       <c r="E13">
-        <v>0.9655571322874043</v>
+        <v>1.014531531449805</v>
       </c>
       <c r="F13">
-        <v>1.019659783008164</v>
+        <v>1.049606082690091</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04977597763761</v>
+        <v>1.038656562013371</v>
       </c>
       <c r="J13">
-        <v>0.9828194617839479</v>
+        <v>1.019208303805968</v>
       </c>
       <c r="K13">
-        <v>1.045034027393443</v>
+        <v>1.051250340098693</v>
       </c>
       <c r="L13">
-        <v>0.9813289832276533</v>
+        <v>1.018216286479913</v>
       </c>
       <c r="M13">
-        <v>1.034376979168225</v>
+        <v>1.053158278260299</v>
       </c>
       <c r="N13">
-        <v>0.9842151781506489</v>
+        <v>1.020655696502198</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9519040388972519</v>
+        <v>1.012593877995138</v>
       </c>
       <c r="D14">
-        <v>1.03108612505363</v>
+        <v>1.04779931519136</v>
       </c>
       <c r="E14">
-        <v>0.9663663085241232</v>
+        <v>1.014692356596622</v>
       </c>
       <c r="F14">
-        <v>1.020388345557412</v>
+        <v>1.049747964167706</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049963352323286</v>
+        <v>1.038678717652743</v>
       </c>
       <c r="J14">
-        <v>0.983462934788948</v>
+        <v>1.019334690368043</v>
       </c>
       <c r="K14">
-        <v>1.045460917832561</v>
+        <v>1.051326893748042</v>
       </c>
       <c r="L14">
-        <v>0.9819695023146779</v>
+        <v>1.01834410199633</v>
       </c>
       <c r="M14">
-        <v>1.034952223324145</v>
+        <v>1.053268503999708</v>
       </c>
       <c r="N14">
-        <v>0.9848595649611236</v>
+        <v>1.020782262547689</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.952531695610342</v>
+        <v>1.012710515962773</v>
       </c>
       <c r="D15">
-        <v>1.031439239891853</v>
+        <v>1.047865946203748</v>
       </c>
       <c r="E15">
-        <v>0.9668630942408819</v>
+        <v>1.014791465538436</v>
       </c>
       <c r="F15">
-        <v>1.020835716576851</v>
+        <v>1.049835383501721</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050078145074476</v>
+        <v>1.038692333968045</v>
       </c>
       <c r="J15">
-        <v>0.9838578156656907</v>
+        <v>1.019412561062913</v>
       </c>
       <c r="K15">
-        <v>1.045722878463391</v>
+        <v>1.051374037227345</v>
       </c>
       <c r="L15">
-        <v>0.9823626223613282</v>
+        <v>1.018422857444642</v>
       </c>
       <c r="M15">
-        <v>1.035305308886457</v>
+        <v>1.053336403151522</v>
       </c>
       <c r="N15">
-        <v>0.9852550066140049</v>
+        <v>1.020860243827877</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9561468708295803</v>
+        <v>1.013389578506626</v>
       </c>
       <c r="D16">
-        <v>1.033476591606104</v>
+        <v>1.04825366571964</v>
       </c>
       <c r="E16">
-        <v>0.9697281253298489</v>
+        <v>1.015368616255075</v>
       </c>
       <c r="F16">
-        <v>1.023416807852543</v>
+        <v>1.050344223020027</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050736401267021</v>
+        <v>1.03877105944258</v>
       </c>
       <c r="J16">
-        <v>0.9861325377422955</v>
+        <v>1.019865798463051</v>
       </c>
       <c r="K16">
-        <v>1.047231641778537</v>
+        <v>1.051648068959276</v>
       </c>
       <c r="L16">
-        <v>0.9846279800656178</v>
+        <v>1.018881310497995</v>
       </c>
       <c r="M16">
-        <v>1.037340280448145</v>
+        <v>1.053731382094956</v>
       </c>
       <c r="N16">
-        <v>0.9875329590568726</v>
+        <v>1.021314124877111</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9583820412578303</v>
+        <v>1.013815694732875</v>
       </c>
       <c r="D17">
-        <v>1.034739077053232</v>
+        <v>1.048496780795881</v>
       </c>
       <c r="E17">
-        <v>0.9715026143271781</v>
+        <v>1.015730906183931</v>
       </c>
       <c r="F17">
-        <v>1.025016212368392</v>
+        <v>1.050663421908296</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051140719594786</v>
+        <v>1.038819976828493</v>
       </c>
       <c r="J17">
-        <v>0.9875391356123606</v>
+        <v>1.020150098974774</v>
       </c>
       <c r="K17">
-        <v>1.048164238963688</v>
+        <v>1.051819640371348</v>
       </c>
       <c r="L17">
-        <v>0.9860294628795352</v>
+        <v>1.019168940709178</v>
       </c>
       <c r="M17">
-        <v>1.038599387457401</v>
+        <v>1.053978943959276</v>
       </c>
       <c r="N17">
-        <v>0.9889415544572521</v>
+        <v>1.02159882912817</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9596744309682474</v>
+        <v>1.014064298314519</v>
       </c>
       <c r="D18">
-        <v>1.035469995870098</v>
+        <v>1.048638552272506</v>
       </c>
       <c r="E18">
-        <v>0.9725297229881338</v>
+        <v>1.015942316834394</v>
       </c>
       <c r="F18">
-        <v>1.025942205619991</v>
+        <v>1.050849610908542</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051373502524022</v>
+        <v>1.038848341708608</v>
       </c>
       <c r="J18">
-        <v>0.9883524875500612</v>
+        <v>1.02031592542053</v>
       </c>
       <c r="K18">
-        <v>1.048703325161026</v>
+        <v>1.051919598779284</v>
       </c>
       <c r="L18">
-        <v>0.9868400972149817</v>
+        <v>1.0193367302052</v>
       </c>
       <c r="M18">
-        <v>1.039327679350429</v>
+        <v>1.054123270788886</v>
       </c>
       <c r="N18">
-        <v>0.9897560614479974</v>
+        <v>1.021764891066499</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9601132122770643</v>
+        <v>1.014149075429106</v>
       </c>
       <c r="D19">
-        <v>1.035718303512879</v>
+        <v>1.048686886955305</v>
       </c>
       <c r="E19">
-        <v>0.9728786198233857</v>
+        <v>1.0160144181781</v>
       </c>
       <c r="F19">
-        <v>1.026256788357537</v>
+        <v>1.050913097459328</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051452362533926</v>
+        <v>1.038857984916946</v>
       </c>
       <c r="J19">
-        <v>0.9886286360931011</v>
+        <v>1.020372467741212</v>
       </c>
       <c r="K19">
-        <v>1.048886320293582</v>
+        <v>1.051953662245449</v>
       </c>
       <c r="L19">
-        <v>0.9871153635398393</v>
+        <v>1.019393945416212</v>
       </c>
       <c r="M19">
-        <v>1.039574982062211</v>
+        <v>1.054172470282622</v>
       </c>
       <c r="N19">
-        <v>0.990032602153643</v>
+        <v>1.021821513683762</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.958143410620669</v>
+        <v>1.013769970582162</v>
       </c>
       <c r="D20">
-        <v>1.03460419239394</v>
+        <v>1.04847070029397</v>
       </c>
       <c r="E20">
-        <v>0.9713130532044441</v>
+        <v>1.015692026274668</v>
       </c>
       <c r="F20">
-        <v>1.024845330072789</v>
+        <v>1.050629174287689</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051097656462455</v>
+        <v>1.038814745807787</v>
       </c>
       <c r="J20">
-        <v>0.9873889593189151</v>
+        <v>1.020119596347193</v>
       </c>
       <c r="K20">
-        <v>1.048064687170184</v>
+        <v>1.05180124440134</v>
       </c>
       <c r="L20">
-        <v>0.9858798077114296</v>
+        <v>1.019138078674629</v>
       </c>
       <c r="M20">
-        <v>1.038464933666964</v>
+        <v>1.053952390332086</v>
       </c>
       <c r="N20">
-        <v>0.9887911648962444</v>
+        <v>1.021568283183359</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.951603369860862</v>
+        <v>1.012538135113958</v>
       </c>
       <c r="D21">
-        <v>1.030917036167444</v>
+        <v>1.047767467738732</v>
       </c>
       <c r="E21">
-        <v>0.9661283974626631</v>
+        <v>1.014644993586232</v>
       </c>
       <c r="F21">
-        <v>1.020174119791741</v>
+        <v>1.049706183298946</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049908311872582</v>
+        <v>1.038672200556236</v>
       </c>
       <c r="J21">
-        <v>0.9832737793273352</v>
+        <v>1.019297472724874</v>
       </c>
       <c r="K21">
-        <v>1.045335430769498</v>
+        <v>1.051304355551686</v>
       </c>
       <c r="L21">
-        <v>0.9817812043335352</v>
+        <v>1.018306462660031</v>
       </c>
       <c r="M21">
-        <v>1.034783108525969</v>
+        <v>1.053236048298221</v>
       </c>
       <c r="N21">
-        <v>0.9846701408770587</v>
+        <v>1.020744992051198</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9473808361131134</v>
+        <v>1.011764142889329</v>
       </c>
       <c r="D22">
-        <v>1.028546987424399</v>
+        <v>1.047325028955632</v>
       </c>
       <c r="E22">
-        <v>0.9627917566415803</v>
+        <v>1.013987523287937</v>
       </c>
       <c r="F22">
-        <v>1.017171187357403</v>
+        <v>1.049125925167812</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049132043251135</v>
+        <v>1.038581069570026</v>
       </c>
       <c r="J22">
-        <v>0.9806177843791709</v>
+        <v>1.018780560533841</v>
       </c>
       <c r="K22">
-        <v>1.04357337041136</v>
+        <v>1.050990903674331</v>
       </c>
       <c r="L22">
-        <v>0.9791381960804404</v>
+        <v>1.017783771098216</v>
       </c>
       <c r="M22">
-        <v>1.032409985648338</v>
+        <v>1.052785018554863</v>
       </c>
       <c r="N22">
-        <v>0.9820103741114214</v>
+        <v>1.020227345785563</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9496301845633444</v>
+        <v>1.012174402491723</v>
       </c>
       <c r="D23">
-        <v>1.029808431792622</v>
+        <v>1.047559600866767</v>
       </c>
       <c r="E23">
-        <v>0.9645681358483472</v>
+        <v>1.014335980931573</v>
       </c>
       <c r="F23">
-        <v>1.018769537132141</v>
+        <v>1.049433524450729</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049546308767367</v>
+        <v>1.038629522465378</v>
       </c>
       <c r="J23">
-        <v>0.9820325221014555</v>
+        <v>1.019054586423381</v>
       </c>
       <c r="K23">
-        <v>1.044511944362394</v>
+        <v>1.051157168386374</v>
       </c>
       <c r="L23">
-        <v>0.9805457975564584</v>
+        <v>1.018060842807159</v>
       </c>
       <c r="M23">
-        <v>1.033673695160065</v>
+        <v>1.053024177862541</v>
       </c>
       <c r="N23">
-        <v>0.9834271209235445</v>
+        <v>1.020501760823297</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9582512725130905</v>
+        <v>1.013790631180733</v>
       </c>
       <c r="D24">
-        <v>1.034665157835922</v>
+        <v>1.048482485053661</v>
       </c>
       <c r="E24">
-        <v>0.971398732136346</v>
+        <v>1.015709594144484</v>
       </c>
       <c r="F24">
-        <v>1.024922565749719</v>
+        <v>1.050644649295839</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051117124250456</v>
+        <v>1.038817109999423</v>
       </c>
       <c r="J24">
-        <v>0.9874568393910147</v>
+        <v>1.020133379175341</v>
       </c>
       <c r="K24">
-        <v>1.04810968540566</v>
+        <v>1.051809557107801</v>
       </c>
       <c r="L24">
-        <v>0.9859474514894589</v>
+        <v>1.01915202383878</v>
       </c>
       <c r="M24">
-        <v>1.038525706440561</v>
+        <v>1.053964388995245</v>
       </c>
       <c r="N24">
-        <v>0.9888591413658324</v>
+        <v>1.021582085584704</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9678138538926616</v>
+        <v>1.015668420152855</v>
       </c>
       <c r="D25">
-        <v>1.040087722115967</v>
+        <v>1.04955212250763</v>
       </c>
       <c r="E25">
-        <v>0.97901682687986</v>
+        <v>1.017307245289623</v>
       </c>
       <c r="F25">
-        <v>1.031793225446414</v>
+        <v>1.052050309226438</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052820786582824</v>
+        <v>1.039028209843364</v>
       </c>
       <c r="J25">
-        <v>0.9934751760729545</v>
+        <v>1.021385209355299</v>
       </c>
       <c r="K25">
-        <v>1.052094042751375</v>
+        <v>1.052562050840683</v>
       </c>
       <c r="L25">
-        <v>0.9919498542424526</v>
+        <v>1.020419049175509</v>
       </c>
       <c r="M25">
-        <v>1.043917255598885</v>
+        <v>1.055052629140668</v>
       </c>
       <c r="N25">
-        <v>0.9948860247761734</v>
+        <v>1.022835693507105</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_154/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_154/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017167970187033</v>
+        <v>0.9751235925066148</v>
       </c>
       <c r="D2">
-        <v>1.050404131575146</v>
+        <v>1.04425272742699</v>
       </c>
       <c r="E2">
-        <v>1.018584458628503</v>
+        <v>0.9848700313006634</v>
       </c>
       <c r="F2">
-        <v>1.053171572303187</v>
+        <v>1.037073351853836</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039191247027457</v>
+        <v>1.054088302201206</v>
       </c>
       <c r="J2">
-        <v>1.02238362288184</v>
+        <v>0.9980746932486741</v>
       </c>
       <c r="K2">
-        <v>1.053158503322448</v>
+        <v>1.055128146249095</v>
       </c>
       <c r="L2">
-        <v>1.02143023957654</v>
+        <v>0.9965442540591235</v>
       </c>
       <c r="M2">
-        <v>1.055918277059859</v>
+        <v>1.04803927211637</v>
       </c>
       <c r="N2">
-        <v>1.023835524895373</v>
+        <v>0.9994920737938546</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018257849859831</v>
+        <v>0.9802642142628545</v>
       </c>
       <c r="D3">
-        <v>1.051022076573956</v>
+        <v>1.047189524302515</v>
       </c>
       <c r="E3">
-        <v>1.019513524279183</v>
+        <v>0.9890021040344754</v>
       </c>
       <c r="F3">
-        <v>1.05398574379513</v>
+        <v>1.040799122135404</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039306519346215</v>
+        <v>1.054957808167005</v>
       </c>
       <c r="J3">
-        <v>1.023108534113564</v>
+        <v>1.001307748324113</v>
       </c>
       <c r="K3">
-        <v>1.05358938936466</v>
+        <v>1.05725221453809</v>
       </c>
       <c r="L3">
-        <v>1.02216480748012</v>
+        <v>0.9997776663458297</v>
       </c>
       <c r="M3">
-        <v>1.056545437182579</v>
+        <v>1.05093528534537</v>
       </c>
       <c r="N3">
-        <v>1.024561465584194</v>
+        <v>1.002729720178337</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018963575465803</v>
+        <v>0.9835184493571746</v>
       </c>
       <c r="D4">
-        <v>1.051421598318675</v>
+        <v>1.049051054983582</v>
       </c>
       <c r="E4">
-        <v>1.020115474984113</v>
+        <v>0.9916247302488542</v>
       </c>
       <c r="F4">
-        <v>1.054512573358387</v>
+        <v>1.043162322428133</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039379666209665</v>
+        <v>1.055497565339167</v>
       </c>
       <c r="J4">
-        <v>1.023577588117426</v>
+        <v>1.003353362350802</v>
       </c>
       <c r="K4">
-        <v>1.053867178923646</v>
+        <v>1.058591437699354</v>
       </c>
       <c r="L4">
-        <v>1.022640285066947</v>
+        <v>1.001825299599297</v>
       </c>
       <c r="M4">
-        <v>1.056950605840609</v>
+        <v>1.052766296630916</v>
       </c>
       <c r="N4">
-        <v>1.025031185698543</v>
+        <v>1.004778239211579</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019260382613656</v>
+        <v>0.9848699828218956</v>
       </c>
       <c r="D5">
-        <v>1.051589476404707</v>
+        <v>1.049824590750901</v>
       </c>
       <c r="E5">
-        <v>1.020368722054587</v>
+        <v>0.9927155267280187</v>
       </c>
       <c r="F5">
-        <v>1.054734052232546</v>
+        <v>1.044144743481418</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039410071223072</v>
+        <v>1.055719093311701</v>
       </c>
       <c r="J5">
-        <v>1.02377477528621</v>
+        <v>1.00420264056939</v>
       </c>
       <c r="K5">
-        <v>1.053983715434875</v>
+        <v>1.059146209525413</v>
       </c>
       <c r="L5">
-        <v>1.022840214540975</v>
+        <v>1.002675841591991</v>
       </c>
       <c r="M5">
-        <v>1.057120782618311</v>
+        <v>1.053526054379004</v>
       </c>
       <c r="N5">
-        <v>1.025228652895725</v>
+        <v>1.005628723502651</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019310224890516</v>
+        <v>0.9850959608582018</v>
       </c>
       <c r="D6">
-        <v>1.051617659078566</v>
+        <v>1.049953946510656</v>
       </c>
       <c r="E6">
-        <v>1.020411254303518</v>
+        <v>0.9928980003253342</v>
       </c>
       <c r="F6">
-        <v>1.054771239443004</v>
+        <v>1.044309056606443</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039415156052785</v>
+        <v>1.055755975511043</v>
       </c>
       <c r="J6">
-        <v>1.023807883688424</v>
+        <v>1.004344622219996</v>
       </c>
       <c r="K6">
-        <v>1.054003267947927</v>
+        <v>1.059238880365029</v>
       </c>
       <c r="L6">
-        <v>1.022873785838922</v>
+        <v>1.002818059399568</v>
       </c>
       <c r="M6">
-        <v>1.057149346849043</v>
+        <v>1.053653042317155</v>
       </c>
       <c r="N6">
-        <v>1.025261808315667</v>
+        <v>1.005770906783487</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018967540945175</v>
+        <v>0.9835365727193133</v>
       </c>
       <c r="D7">
-        <v>1.05142384183394</v>
+        <v>1.049061426275149</v>
       </c>
       <c r="E7">
-        <v>1.020118858149709</v>
+        <v>0.9916393511018853</v>
       </c>
       <c r="F7">
-        <v>1.054515532773243</v>
+        <v>1.043175492648209</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03938007384309</v>
+        <v>1.055500546454188</v>
       </c>
       <c r="J7">
-        <v>1.02358022295466</v>
+        <v>1.003364751960099</v>
       </c>
       <c r="K7">
-        <v>1.053868737059498</v>
+        <v>1.058598882713896</v>
       </c>
       <c r="L7">
-        <v>1.022642956382733</v>
+        <v>1.001836704481708</v>
       </c>
       <c r="M7">
-        <v>1.056952880366419</v>
+        <v>1.052776487491513</v>
       </c>
       <c r="N7">
-        <v>1.025033824277548</v>
+        <v>1.004789644995428</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017536196633623</v>
+        <v>0.9768762582751688</v>
       </c>
       <c r="D8">
-        <v>1.050613036194153</v>
+        <v>1.045253402466543</v>
       </c>
       <c r="E8">
-        <v>1.018898278277446</v>
+        <v>0.986277361739358</v>
       </c>
       <c r="F8">
-        <v>1.053446723043209</v>
+        <v>1.038342559422219</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039230502008633</v>
+        <v>1.054386946929879</v>
       </c>
       <c r="J8">
-        <v>1.022628612366196</v>
+        <v>0.9991771772573378</v>
       </c>
       <c r="K8">
-        <v>1.053304334142525</v>
+        <v>1.055853387447524</v>
       </c>
       <c r="L8">
-        <v>1.021678456280069</v>
+        <v>0.9976464803115422</v>
       </c>
       <c r="M8">
-        <v>1.056130361591622</v>
+        <v>1.049027044777025</v>
       </c>
       <c r="N8">
-        <v>1.024080862292897</v>
+        <v>1.000596123456267</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015017806979407</v>
+        <v>0.9645535998607674</v>
       </c>
       <c r="D9">
-        <v>1.049181847405989</v>
+        <v>1.038235259518234</v>
       </c>
       <c r="E9">
-        <v>1.016753479335922</v>
+        <v>0.9764145840767386</v>
       </c>
       <c r="F9">
-        <v>1.051563468028275</v>
+        <v>1.029445758686437</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038955923975571</v>
+        <v>1.052245193192594</v>
       </c>
       <c r="J9">
-        <v>1.020951671698537</v>
+        <v>0.9914232968293032</v>
       </c>
       <c r="K9">
-        <v>1.052302015519072</v>
+        <v>1.050737025901894</v>
       </c>
       <c r="L9">
-        <v>1.01998014707541</v>
+        <v>0.9899022712468214</v>
       </c>
       <c r="M9">
-        <v>1.054676097844083</v>
+        <v>1.042078504000935</v>
       </c>
       <c r="N9">
-        <v>1.022401540177142</v>
+        <v>0.9928312316286423</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013341430999438</v>
+        <v>0.9558927128283309</v>
       </c>
       <c r="D10">
-        <v>1.048226186895506</v>
+        <v>1.03333317057127</v>
       </c>
       <c r="E10">
-        <v>1.015327686606929</v>
+        <v>0.9695265015308956</v>
       </c>
       <c r="F10">
-        <v>1.050308151283393</v>
+        <v>1.023235112499005</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038765508617955</v>
+        <v>1.050690293558084</v>
       </c>
       <c r="J10">
-        <v>1.019833669605001</v>
+        <v>0.9859726036955277</v>
       </c>
       <c r="K10">
-        <v>1.051628664035733</v>
+        <v>1.047125581981427</v>
       </c>
       <c r="L10">
-        <v>1.018848808180997</v>
+        <v>0.9844686605900992</v>
       </c>
       <c r="M10">
-        <v>1.053703395538302</v>
+        <v>1.037197150758052</v>
       </c>
       <c r="N10">
-        <v>1.021281950392398</v>
+        <v>0.9873727978854137</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012616141567497</v>
+        <v>0.9520239980813762</v>
       </c>
       <c r="D11">
-        <v>1.047812034341163</v>
+        <v>1.031153598977953</v>
       </c>
       <c r="E11">
-        <v>1.014711273722165</v>
+        <v>0.9664612408791368</v>
       </c>
       <c r="F11">
-        <v>1.049764650990227</v>
+        <v>1.020473830647589</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038681318818633</v>
+        <v>1.049985302908435</v>
       </c>
       <c r="J11">
-        <v>1.019349554612805</v>
+        <v>0.9835384040322426</v>
       </c>
       <c r="K11">
-        <v>1.051335894062308</v>
+        <v>1.045510984167976</v>
       </c>
       <c r="L11">
-        <v>1.018359134870692</v>
+        <v>0.9820446319698249</v>
       </c>
       <c r="M11">
-        <v>1.053281465687463</v>
+        <v>1.035019700373169</v>
       </c>
       <c r="N11">
-        <v>1.020797147901383</v>
+        <v>0.9849351413794001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012346825253086</v>
+        <v>0.9505679925951089</v>
       </c>
       <c r="D12">
-        <v>1.047658149610549</v>
+        <v>1.030335092417917</v>
       </c>
       <c r="E12">
-        <v>1.014482455810613</v>
+        <v>0.9653094606116077</v>
       </c>
       <c r="F12">
-        <v>1.049562781515395</v>
+        <v>1.019436817704665</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038649786429092</v>
+        <v>1.049718529192839</v>
       </c>
       <c r="J12">
-        <v>1.019169730936508</v>
+        <v>0.9826224389697612</v>
       </c>
       <c r="K12">
-        <v>1.051226966708844</v>
+        <v>1.044903316550254</v>
       </c>
       <c r="L12">
-        <v>1.018177279224385</v>
+        <v>0.9811328857263212</v>
       </c>
       <c r="M12">
-        <v>1.053124631919415</v>
+        <v>1.034200878256814</v>
       </c>
       <c r="N12">
-        <v>1.02061706885484</v>
+        <v>0.9840178755414674</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012404590521573</v>
+        <v>0.9508811903905814</v>
       </c>
       <c r="D13">
-        <v>1.047691160642257</v>
+        <v>1.030511074452839</v>
       </c>
       <c r="E13">
-        <v>1.014531531449805</v>
+        <v>0.9655571322874036</v>
       </c>
       <c r="F13">
-        <v>1.049606082690091</v>
+        <v>1.019659783008164</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038656562013371</v>
+        <v>1.04977597763761</v>
       </c>
       <c r="J13">
-        <v>1.019208303805968</v>
+        <v>0.9828194617839475</v>
       </c>
       <c r="K13">
-        <v>1.051250340098693</v>
+        <v>1.045034027393444</v>
       </c>
       <c r="L13">
-        <v>1.018216286479913</v>
+        <v>0.9813289832276525</v>
       </c>
       <c r="M13">
-        <v>1.053158278260299</v>
+        <v>1.034376979168225</v>
       </c>
       <c r="N13">
-        <v>1.020655696502198</v>
+        <v>0.9842151781506486</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012593877995138</v>
+        <v>0.9519040388972522</v>
       </c>
       <c r="D14">
-        <v>1.04779931519136</v>
+        <v>1.03108612505363</v>
       </c>
       <c r="E14">
-        <v>1.014692356596622</v>
+        <v>0.9663663085241234</v>
       </c>
       <c r="F14">
-        <v>1.049747964167706</v>
+        <v>1.020388345557412</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038678717652743</v>
+        <v>1.049963352323286</v>
       </c>
       <c r="J14">
-        <v>1.019334690368043</v>
+        <v>0.9834629347889482</v>
       </c>
       <c r="K14">
-        <v>1.051326893748042</v>
+        <v>1.045460917832561</v>
       </c>
       <c r="L14">
-        <v>1.01834410199633</v>
+        <v>0.9819695023146781</v>
       </c>
       <c r="M14">
-        <v>1.053268503999708</v>
+        <v>1.034952223324145</v>
       </c>
       <c r="N14">
-        <v>1.020782262547689</v>
+        <v>0.9848595649611238</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012710515962773</v>
+        <v>0.9525316956103422</v>
       </c>
       <c r="D15">
-        <v>1.047865946203748</v>
+        <v>1.031439239891854</v>
       </c>
       <c r="E15">
-        <v>1.014791465538436</v>
+        <v>0.9668630942408823</v>
       </c>
       <c r="F15">
-        <v>1.049835383501721</v>
+        <v>1.020835716576852</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038692333968045</v>
+        <v>1.050078145074476</v>
       </c>
       <c r="J15">
-        <v>1.019412561062913</v>
+        <v>0.9838578156656911</v>
       </c>
       <c r="K15">
-        <v>1.051374037227345</v>
+        <v>1.045722878463392</v>
       </c>
       <c r="L15">
-        <v>1.018422857444642</v>
+        <v>0.9823626223613287</v>
       </c>
       <c r="M15">
-        <v>1.053336403151522</v>
+        <v>1.035305308886458</v>
       </c>
       <c r="N15">
-        <v>1.020860243827877</v>
+        <v>0.9852550066140052</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013389578506626</v>
+        <v>0.9561468708295798</v>
       </c>
       <c r="D16">
-        <v>1.04825366571964</v>
+        <v>1.033476591606104</v>
       </c>
       <c r="E16">
-        <v>1.015368616255075</v>
+        <v>0.9697281253298483</v>
       </c>
       <c r="F16">
-        <v>1.050344223020027</v>
+        <v>1.023416807852543</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03877105944258</v>
+        <v>1.050736401267021</v>
       </c>
       <c r="J16">
-        <v>1.019865798463051</v>
+        <v>0.9861325377422953</v>
       </c>
       <c r="K16">
-        <v>1.051648068959276</v>
+        <v>1.047231641778537</v>
       </c>
       <c r="L16">
-        <v>1.018881310497995</v>
+        <v>0.9846279800656174</v>
       </c>
       <c r="M16">
-        <v>1.053731382094956</v>
+        <v>1.037340280448144</v>
       </c>
       <c r="N16">
-        <v>1.021314124877111</v>
+        <v>0.9875329590568724</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013815694732875</v>
+        <v>0.9583820412578309</v>
       </c>
       <c r="D17">
-        <v>1.048496780795881</v>
+        <v>1.034739077053233</v>
       </c>
       <c r="E17">
-        <v>1.015730906183931</v>
+        <v>0.9715026143271784</v>
       </c>
       <c r="F17">
-        <v>1.050663421908296</v>
+        <v>1.025016212368392</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038819976828493</v>
+        <v>1.051140719594787</v>
       </c>
       <c r="J17">
-        <v>1.020150098974774</v>
+        <v>0.9875391356123611</v>
       </c>
       <c r="K17">
-        <v>1.051819640371348</v>
+        <v>1.048164238963689</v>
       </c>
       <c r="L17">
-        <v>1.019168940709178</v>
+        <v>0.9860294628795355</v>
       </c>
       <c r="M17">
-        <v>1.053978943959276</v>
+        <v>1.038599387457401</v>
       </c>
       <c r="N17">
-        <v>1.02159882912817</v>
+        <v>0.9889415544572525</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014064298314519</v>
+        <v>0.9596744309682463</v>
       </c>
       <c r="D18">
-        <v>1.048638552272506</v>
+        <v>1.035469995870098</v>
       </c>
       <c r="E18">
-        <v>1.015942316834394</v>
+        <v>0.9725297229881326</v>
       </c>
       <c r="F18">
-        <v>1.050849610908542</v>
+        <v>1.02594220561999</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038848341708608</v>
+        <v>1.051373502524022</v>
       </c>
       <c r="J18">
-        <v>1.02031592542053</v>
+        <v>0.9883524875500604</v>
       </c>
       <c r="K18">
-        <v>1.051919598779284</v>
+        <v>1.048703325161026</v>
       </c>
       <c r="L18">
-        <v>1.0193367302052</v>
+        <v>0.9868400972149806</v>
       </c>
       <c r="M18">
-        <v>1.054123270788886</v>
+        <v>1.039327679350429</v>
       </c>
       <c r="N18">
-        <v>1.021764891066499</v>
+        <v>0.9897560614479965</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014149075429106</v>
+        <v>0.9601132122770649</v>
       </c>
       <c r="D19">
-        <v>1.048686886955305</v>
+        <v>1.03571830351288</v>
       </c>
       <c r="E19">
-        <v>1.0160144181781</v>
+        <v>0.9728786198233864</v>
       </c>
       <c r="F19">
-        <v>1.050913097459328</v>
+        <v>1.026256788357538</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038857984916946</v>
+        <v>1.051452362533927</v>
       </c>
       <c r="J19">
-        <v>1.020372467741212</v>
+        <v>0.9886286360931018</v>
       </c>
       <c r="K19">
-        <v>1.051953662245449</v>
+        <v>1.048886320293583</v>
       </c>
       <c r="L19">
-        <v>1.019393945416212</v>
+        <v>0.9871153635398399</v>
       </c>
       <c r="M19">
-        <v>1.054172470282622</v>
+        <v>1.039574982062212</v>
       </c>
       <c r="N19">
-        <v>1.021821513683762</v>
+        <v>0.9900326021536437</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013769970582162</v>
+        <v>0.958143410620669</v>
       </c>
       <c r="D20">
-        <v>1.04847070029397</v>
+        <v>1.03460419239394</v>
       </c>
       <c r="E20">
-        <v>1.015692026274668</v>
+        <v>0.9713130532044442</v>
       </c>
       <c r="F20">
-        <v>1.050629174287689</v>
+        <v>1.02484533007279</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038814745807787</v>
+        <v>1.051097656462455</v>
       </c>
       <c r="J20">
-        <v>1.020119596347193</v>
+        <v>0.9873889593189151</v>
       </c>
       <c r="K20">
-        <v>1.05180124440134</v>
+        <v>1.048064687170184</v>
       </c>
       <c r="L20">
-        <v>1.019138078674629</v>
+        <v>0.9858798077114296</v>
       </c>
       <c r="M20">
-        <v>1.053952390332086</v>
+        <v>1.038464933666964</v>
       </c>
       <c r="N20">
-        <v>1.021568283183359</v>
+        <v>0.9887911648962445</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012538135113958</v>
+        <v>0.9516033698608625</v>
       </c>
       <c r="D21">
-        <v>1.047767467738732</v>
+        <v>1.030917036167443</v>
       </c>
       <c r="E21">
-        <v>1.014644993586232</v>
+        <v>0.9661283974626633</v>
       </c>
       <c r="F21">
-        <v>1.049706183298946</v>
+        <v>1.020174119791741</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038672200556236</v>
+        <v>1.049908311872582</v>
       </c>
       <c r="J21">
-        <v>1.019297472724874</v>
+        <v>0.9832737793273355</v>
       </c>
       <c r="K21">
-        <v>1.051304355551686</v>
+        <v>1.045335430769497</v>
       </c>
       <c r="L21">
-        <v>1.018306462660031</v>
+        <v>0.9817812043335357</v>
       </c>
       <c r="M21">
-        <v>1.053236048298221</v>
+        <v>1.034783108525969</v>
       </c>
       <c r="N21">
-        <v>1.020744992051198</v>
+        <v>0.9846701408770591</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011764142889329</v>
+        <v>0.9473808361131131</v>
       </c>
       <c r="D22">
-        <v>1.047325028955632</v>
+        <v>1.028546987424399</v>
       </c>
       <c r="E22">
-        <v>1.013987523287937</v>
+        <v>0.9627917566415798</v>
       </c>
       <c r="F22">
-        <v>1.049125925167812</v>
+        <v>1.017171187357403</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038581069570026</v>
+        <v>1.049132043251135</v>
       </c>
       <c r="J22">
-        <v>1.018780560533841</v>
+        <v>0.9806177843791707</v>
       </c>
       <c r="K22">
-        <v>1.050990903674331</v>
+        <v>1.04357337041136</v>
       </c>
       <c r="L22">
-        <v>1.017783771098216</v>
+        <v>0.9791381960804399</v>
       </c>
       <c r="M22">
-        <v>1.052785018554863</v>
+        <v>1.032409985648338</v>
       </c>
       <c r="N22">
-        <v>1.020227345785563</v>
+        <v>0.9820103741114211</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.012174402491723</v>
+        <v>0.9496301845633439</v>
       </c>
       <c r="D23">
-        <v>1.047559600866767</v>
+        <v>1.029808431792621</v>
       </c>
       <c r="E23">
-        <v>1.014335980931573</v>
+        <v>0.9645681358483466</v>
       </c>
       <c r="F23">
-        <v>1.049433524450729</v>
+        <v>1.01876953713214</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038629522465378</v>
+        <v>1.049546308767367</v>
       </c>
       <c r="J23">
-        <v>1.019054586423381</v>
+        <v>0.9820325221014551</v>
       </c>
       <c r="K23">
-        <v>1.051157168386374</v>
+        <v>1.044511944362394</v>
       </c>
       <c r="L23">
-        <v>1.018060842807159</v>
+        <v>0.9805457975564578</v>
       </c>
       <c r="M23">
-        <v>1.053024177862541</v>
+        <v>1.033673695160065</v>
       </c>
       <c r="N23">
-        <v>1.020501760823297</v>
+        <v>0.9834271209235439</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013790631180733</v>
+        <v>0.9582512725130902</v>
       </c>
       <c r="D24">
-        <v>1.048482485053661</v>
+        <v>1.034665157835922</v>
       </c>
       <c r="E24">
-        <v>1.015709594144484</v>
+        <v>0.9713987321363455</v>
       </c>
       <c r="F24">
-        <v>1.050644649295839</v>
+        <v>1.02492256574972</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038817109999423</v>
+        <v>1.051117124250456</v>
       </c>
       <c r="J24">
-        <v>1.020133379175341</v>
+        <v>0.9874568393910145</v>
       </c>
       <c r="K24">
-        <v>1.051809557107801</v>
+        <v>1.04810968540566</v>
       </c>
       <c r="L24">
-        <v>1.01915202383878</v>
+        <v>0.9859474514894585</v>
       </c>
       <c r="M24">
-        <v>1.053964388995245</v>
+        <v>1.038525706440561</v>
       </c>
       <c r="N24">
-        <v>1.021582085584704</v>
+        <v>0.9888591413658322</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015668420152855</v>
+        <v>0.9678138538926614</v>
       </c>
       <c r="D25">
-        <v>1.04955212250763</v>
+        <v>1.040087722115968</v>
       </c>
       <c r="E25">
-        <v>1.017307245289623</v>
+        <v>0.9790168268798597</v>
       </c>
       <c r="F25">
-        <v>1.052050309226438</v>
+        <v>1.031793225446415</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039028209843364</v>
+        <v>1.052820786582824</v>
       </c>
       <c r="J25">
-        <v>1.021385209355299</v>
+        <v>0.9934751760729544</v>
       </c>
       <c r="K25">
-        <v>1.052562050840683</v>
+        <v>1.052094042751376</v>
       </c>
       <c r="L25">
-        <v>1.020419049175509</v>
+        <v>0.9919498542424523</v>
       </c>
       <c r="M25">
-        <v>1.055052629140668</v>
+        <v>1.043917255598886</v>
       </c>
       <c r="N25">
-        <v>1.022835693507105</v>
+        <v>0.9948860247761734</v>
       </c>
     </row>
   </sheetData>
